--- a/CameraTriggerR3SMD/Assembly/CameraTriggerR3SMD-top-pos updated.xlsx
+++ b/CameraTriggerR3SMD/Assembly/CameraTriggerR3SMD-top-pos updated.xlsx
@@ -1306,7 +1306,7 @@
   <dimension ref="A1:G83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2179,7 +2179,7 @@
         <v>-30.64256</v>
       </c>
       <c r="F38">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="G38" t="s">
         <v>3</v>
